--- a/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24982021238055</v>
+        <v>26.24982021238051</v>
       </c>
       <c r="C2">
-        <v>19.80031800495182</v>
+        <v>19.80031800495174</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.79872938045752</v>
+        <v>14.79872938045782</v>
       </c>
       <c r="F2">
-        <v>65.21489448868799</v>
+        <v>65.21489448868833</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.033899817436</v>
+        <v>36.0338998174364</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.20154318846298</v>
+        <v>24.20154318846314</v>
       </c>
       <c r="C3">
-        <v>18.24852872957238</v>
+        <v>18.24852872957223</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.6492040988529</v>
+        <v>13.64920409885321</v>
       </c>
       <c r="F3">
-        <v>60.0791775922912</v>
+        <v>60.07917759229201</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.34688580442597</v>
+        <v>33.34688580442671</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.90234220949376</v>
+        <v>22.9023422094937</v>
       </c>
       <c r="C4">
-        <v>17.2675365970181</v>
+        <v>17.26753659701818</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.96183825400173</v>
+        <v>12.96183825400174</v>
       </c>
       <c r="F4">
-        <v>56.85042475279306</v>
+        <v>56.85042475279304</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.67639362007979</v>
+        <v>31.67639362007976</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.36153507746635</v>
+        <v>22.36153507746627</v>
       </c>
       <c r="C5">
-        <v>16.85985112459343</v>
+        <v>16.85985112459337</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.68472987022743</v>
+        <v>12.68472987022729</v>
       </c>
       <c r="F5">
-        <v>55.51286132829776</v>
+        <v>55.51286132829726</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.98885963545128</v>
+        <v>30.98885963545086</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.27102363885836</v>
+        <v>22.2710236388585</v>
       </c>
       <c r="C6">
-        <v>16.79165497884444</v>
+        <v>16.79165497884417</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.63885557615122</v>
+        <v>12.63885557615114</v>
       </c>
       <c r="F6">
-        <v>55.28936969942826</v>
+        <v>55.28936969942828</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.87424572243079</v>
+        <v>30.87424572243081</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.89509584481858</v>
+        <v>22.89509584481868</v>
       </c>
       <c r="C7">
-        <v>17.26207148923493</v>
+        <v>17.26207148923489</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>12.95809085919411</v>
       </c>
       <c r="F7">
-        <v>56.83247759958434</v>
+        <v>56.83247759958452</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.66715062453739</v>
+        <v>31.66715062453751</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.55158613101437</v>
+        <v>25.55158613101451</v>
       </c>
       <c r="C8">
-        <v>19.27055886513056</v>
+        <v>19.27055886513049</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.3974422353249</v>
+        <v>14.39744223532539</v>
       </c>
       <c r="F8">
-        <v>63.45782161228706</v>
+        <v>63.45782161228817</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.11059995745916</v>
+        <v>35.11059995746018</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.48462022895912</v>
+        <v>30.48462022895907</v>
       </c>
       <c r="C9">
-        <v>23.03371322646246</v>
+        <v>23.03371322646229</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.46502637303574</v>
+        <v>17.46502637303551</v>
       </c>
       <c r="F9">
-        <v>76.02383686929994</v>
+        <v>76.02383686929966</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.80060617339228</v>
+        <v>41.80060617339198</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.04318278060863</v>
+        <v>34.04318278060852</v>
       </c>
       <c r="C10">
-        <v>25.78464476746921</v>
+        <v>25.78464476746932</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.06866425276252</v>
+        <v>20.06866425276202</v>
       </c>
       <c r="F10">
-        <v>85.34061461478292</v>
+        <v>85.3406146147822</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.88791187615453</v>
+        <v>46.88791187615376</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.68452509565083</v>
+        <v>35.68452509565109</v>
       </c>
       <c r="C11">
-        <v>27.06669187697533</v>
+        <v>27.06669187697566</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.40589489626923</v>
+        <v>21.40589489627008</v>
       </c>
       <c r="F11">
-        <v>89.7258223059609</v>
+        <v>89.72582230596252</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>49.32026962046457</v>
+        <v>49.32026962046597</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.31425000405378</v>
+        <v>36.31425000405373</v>
       </c>
       <c r="C12">
-        <v>27.56114012113159</v>
+        <v>27.56114012113178</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.94518155859586</v>
+        <v>21.94518155859585</v>
       </c>
       <c r="F12">
-        <v>91.42536305469839</v>
+        <v>91.42536305469872</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>50.26968251436747</v>
+        <v>50.26968251436771</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.17815756122437</v>
+        <v>36.17815756122459</v>
       </c>
       <c r="C13">
-        <v>27.45415498910206</v>
+        <v>27.45415498910228</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.82733197771446</v>
+        <v>21.82733197771429</v>
       </c>
       <c r="F13">
-        <v>91.05721591649227</v>
+        <v>91.05721591649215</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>50.06370113576419</v>
+        <v>50.06370113576407</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.73613178236327</v>
+        <v>35.73613178236342</v>
       </c>
       <c r="C14">
-        <v>27.10715636781424</v>
+        <v>27.10715636781439</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.44951855098729</v>
+        <v>21.44951855098746</v>
       </c>
       <c r="F14">
-        <v>89.86472793844004</v>
+        <v>89.86472793844059</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>49.39772369462885</v>
+        <v>49.39772369462931</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.46663184394829</v>
+        <v>35.46663184394808</v>
       </c>
       <c r="C15">
-        <v>26.89595103598461</v>
+        <v>26.89595103598453</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.22280749165316</v>
+        <v>21.2228074916537</v>
       </c>
       <c r="F15">
-        <v>89.14005403578685</v>
+        <v>89.1400540357875</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>48.99392151076854</v>
+        <v>48.9939215107692</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.93674283689538</v>
+        <v>33.93674283689555</v>
       </c>
       <c r="C16">
-        <v>25.70181891133545</v>
+        <v>25.70181891133538</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.98515947860811</v>
+        <v>19.98515947860813</v>
       </c>
       <c r="F16">
-        <v>85.05831968968234</v>
+        <v>85.05831968968231</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>46.73217362234551</v>
+        <v>46.73217362234554</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.0068408999342</v>
+        <v>33.00684089993419</v>
       </c>
       <c r="C17">
-        <v>24.97973540748634</v>
+        <v>24.97973540748638</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.2712300794534</v>
+        <v>19.27123007945334</v>
       </c>
       <c r="F17">
         <v>82.60214274988643</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>45.38137660677081</v>
+        <v>45.38137660677076</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.47371799844736</v>
+        <v>32.47371799844754</v>
       </c>
       <c r="C18">
-        <v>24.56693575332534</v>
+        <v>24.56693575332542</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.87410492145644</v>
+        <v>18.87410492145744</v>
       </c>
       <c r="F18">
-        <v>81.20182984297549</v>
+        <v>81.20182984297711</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.61464520913403</v>
+        <v>44.6146452091354</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.29339269662896</v>
+        <v>32.29339269662906</v>
       </c>
       <c r="C19">
-        <v>24.42749535012193</v>
+        <v>24.42749535012211</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.74171514632565</v>
+        <v>18.74171514632564</v>
       </c>
       <c r="F19">
-        <v>80.72942687610309</v>
+        <v>80.72942687610342</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>44.35653537107814</v>
+        <v>44.35653537107831</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.1056224776483</v>
+        <v>33.10562247764828</v>
       </c>
       <c r="C20">
-        <v>25.05631477764961</v>
+        <v>25.05631477764966</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.34576896074089</v>
+        <v>19.34576896074098</v>
       </c>
       <c r="F20">
-        <v>82.8622196360393</v>
+        <v>82.8622196360394</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>45.52404954815854</v>
+        <v>45.52404954815862</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.86569165741213</v>
+        <v>35.86569165741214</v>
       </c>
       <c r="C21">
-        <v>27.20878709328378</v>
+        <v>27.20878709328367</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.559481107727</v>
+        <v>21.55948110772729</v>
       </c>
       <c r="F21">
-        <v>90.21374417586929</v>
+        <v>90.21374417586982</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>49.59244754985416</v>
+        <v>49.59244754985469</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.72171919966071</v>
+        <v>37.72171919966068</v>
       </c>
       <c r="C22">
-        <v>28.67195766277055</v>
+        <v>28.67195766277061</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.20852649015104</v>
+        <v>23.20852649015108</v>
       </c>
       <c r="F22">
-        <v>95.26206752913053</v>
+        <v>95.2620675291307</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>52.4271938267281</v>
+        <v>52.42719382672818</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.72397304799885</v>
+        <v>36.72397304799883</v>
       </c>
       <c r="C23">
-        <v>27.88367002858933</v>
+        <v>27.88367002858945</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.30444017930089</v>
+        <v>22.30444017930084</v>
       </c>
       <c r="F23">
-        <v>92.53664155048257</v>
+        <v>92.53664155048266</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>50.89254713573194</v>
+        <v>50.89254713573196</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.06095901981219</v>
+        <v>33.06095901981239</v>
       </c>
       <c r="C24">
-        <v>25.02168627708383</v>
+        <v>25.02168627708368</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.3120291660589</v>
+        <v>19.31202916605911</v>
       </c>
       <c r="F24">
-        <v>82.74460339431306</v>
+        <v>82.74460339431351</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>45.45951716092842</v>
+        <v>45.45951716092869</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.17094527003065</v>
+        <v>29.17094527003074</v>
       </c>
       <c r="C25">
-        <v>22.02656741539727</v>
+        <v>22.02656741539738</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.59240203175805</v>
+        <v>16.5924020317582</v>
       </c>
       <c r="F25">
-        <v>72.64132514587585</v>
+        <v>72.64132514587637</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.98024819804104</v>
+        <v>39.98024819804154</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24982021238051</v>
+        <v>26.24982021238055</v>
       </c>
       <c r="C2">
-        <v>19.80031800495174</v>
+        <v>19.80031800495182</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.79872938045782</v>
+        <v>14.79872938045752</v>
       </c>
       <c r="F2">
-        <v>65.21489448868833</v>
+        <v>65.21489448868799</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.0338998174364</v>
+        <v>36.033899817436</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.20154318846314</v>
+        <v>24.20154318846298</v>
       </c>
       <c r="C3">
-        <v>18.24852872957223</v>
+        <v>18.24852872957238</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.64920409885321</v>
+        <v>13.6492040988529</v>
       </c>
       <c r="F3">
-        <v>60.07917759229201</v>
+        <v>60.0791775922912</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.34688580442671</v>
+        <v>33.34688580442597</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.9023422094937</v>
+        <v>22.90234220949376</v>
       </c>
       <c r="C4">
-        <v>17.26753659701818</v>
+        <v>17.2675365970181</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.96183825400174</v>
+        <v>12.96183825400173</v>
       </c>
       <c r="F4">
-        <v>56.85042475279304</v>
+        <v>56.85042475279306</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.67639362007976</v>
+        <v>31.67639362007979</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.36153507746627</v>
+        <v>22.36153507746635</v>
       </c>
       <c r="C5">
-        <v>16.85985112459337</v>
+        <v>16.85985112459343</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.68472987022729</v>
+        <v>12.68472987022743</v>
       </c>
       <c r="F5">
-        <v>55.51286132829726</v>
+        <v>55.51286132829776</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.98885963545086</v>
+        <v>30.98885963545128</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.2710236388585</v>
+        <v>22.27102363885836</v>
       </c>
       <c r="C6">
-        <v>16.79165497884417</v>
+        <v>16.79165497884444</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.63885557615114</v>
+        <v>12.63885557615122</v>
       </c>
       <c r="F6">
-        <v>55.28936969942828</v>
+        <v>55.28936969942826</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.87424572243081</v>
+        <v>30.87424572243079</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.89509584481868</v>
+        <v>22.89509584481858</v>
       </c>
       <c r="C7">
-        <v>17.26207148923489</v>
+        <v>17.26207148923493</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>12.95809085919411</v>
       </c>
       <c r="F7">
-        <v>56.83247759958452</v>
+        <v>56.83247759958434</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.66715062453751</v>
+        <v>31.66715062453739</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.55158613101451</v>
+        <v>25.55158613101437</v>
       </c>
       <c r="C8">
-        <v>19.27055886513049</v>
+        <v>19.27055886513056</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.39744223532539</v>
+        <v>14.3974422353249</v>
       </c>
       <c r="F8">
-        <v>63.45782161228817</v>
+        <v>63.45782161228706</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.11059995746018</v>
+        <v>35.11059995745916</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.48462022895907</v>
+        <v>30.48462022895912</v>
       </c>
       <c r="C9">
-        <v>23.03371322646229</v>
+        <v>23.03371322646246</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.46502637303551</v>
+        <v>17.46502637303574</v>
       </c>
       <c r="F9">
-        <v>76.02383686929966</v>
+        <v>76.02383686929994</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.80060617339198</v>
+        <v>41.80060617339228</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.04318278060852</v>
+        <v>34.04318278060863</v>
       </c>
       <c r="C10">
-        <v>25.78464476746932</v>
+        <v>25.78464476746921</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.06866425276202</v>
+        <v>20.06866425276252</v>
       </c>
       <c r="F10">
-        <v>85.3406146147822</v>
+        <v>85.34061461478292</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.88791187615376</v>
+        <v>46.88791187615453</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.68452509565109</v>
+        <v>35.68452509565083</v>
       </c>
       <c r="C11">
-        <v>27.06669187697566</v>
+        <v>27.06669187697533</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.40589489627008</v>
+        <v>21.40589489626923</v>
       </c>
       <c r="F11">
-        <v>89.72582230596252</v>
+        <v>89.7258223059609</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>49.32026962046597</v>
+        <v>49.32026962046457</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.31425000405373</v>
+        <v>36.31425000405378</v>
       </c>
       <c r="C12">
-        <v>27.56114012113178</v>
+        <v>27.56114012113159</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.94518155859585</v>
+        <v>21.94518155859586</v>
       </c>
       <c r="F12">
-        <v>91.42536305469872</v>
+        <v>91.42536305469839</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>50.26968251436771</v>
+        <v>50.26968251436747</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.17815756122459</v>
+        <v>36.17815756122437</v>
       </c>
       <c r="C13">
-        <v>27.45415498910228</v>
+        <v>27.45415498910206</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.82733197771429</v>
+        <v>21.82733197771446</v>
       </c>
       <c r="F13">
-        <v>91.05721591649215</v>
+        <v>91.05721591649227</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>50.06370113576407</v>
+        <v>50.06370113576419</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.73613178236342</v>
+        <v>35.73613178236327</v>
       </c>
       <c r="C14">
-        <v>27.10715636781439</v>
+        <v>27.10715636781424</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.44951855098746</v>
+        <v>21.44951855098729</v>
       </c>
       <c r="F14">
-        <v>89.86472793844059</v>
+        <v>89.86472793844004</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>49.39772369462931</v>
+        <v>49.39772369462885</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.46663184394808</v>
+        <v>35.46663184394829</v>
       </c>
       <c r="C15">
-        <v>26.89595103598453</v>
+        <v>26.89595103598461</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.2228074916537</v>
+        <v>21.22280749165316</v>
       </c>
       <c r="F15">
-        <v>89.1400540357875</v>
+        <v>89.14005403578685</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>48.9939215107692</v>
+        <v>48.99392151076854</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.93674283689555</v>
+        <v>33.93674283689538</v>
       </c>
       <c r="C16">
-        <v>25.70181891133538</v>
+        <v>25.70181891133545</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.98515947860813</v>
+        <v>19.98515947860811</v>
       </c>
       <c r="F16">
-        <v>85.05831968968231</v>
+        <v>85.05831968968234</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>46.73217362234554</v>
+        <v>46.73217362234551</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.00684089993419</v>
+        <v>33.0068408999342</v>
       </c>
       <c r="C17">
-        <v>24.97973540748638</v>
+        <v>24.97973540748634</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.27123007945334</v>
+        <v>19.2712300794534</v>
       </c>
       <c r="F17">
         <v>82.60214274988643</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>45.38137660677076</v>
+        <v>45.38137660677081</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.47371799844754</v>
+        <v>32.47371799844736</v>
       </c>
       <c r="C18">
-        <v>24.56693575332542</v>
+        <v>24.56693575332534</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.87410492145744</v>
+        <v>18.87410492145644</v>
       </c>
       <c r="F18">
-        <v>81.20182984297711</v>
+        <v>81.20182984297549</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.6146452091354</v>
+        <v>44.61464520913403</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.29339269662906</v>
+        <v>32.29339269662896</v>
       </c>
       <c r="C19">
-        <v>24.42749535012211</v>
+        <v>24.42749535012193</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.74171514632564</v>
+        <v>18.74171514632565</v>
       </c>
       <c r="F19">
-        <v>80.72942687610342</v>
+        <v>80.72942687610309</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>44.35653537107831</v>
+        <v>44.35653537107814</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.10562247764828</v>
+        <v>33.1056224776483</v>
       </c>
       <c r="C20">
-        <v>25.05631477764966</v>
+        <v>25.05631477764961</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.34576896074098</v>
+        <v>19.34576896074089</v>
       </c>
       <c r="F20">
-        <v>82.8622196360394</v>
+        <v>82.8622196360393</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>45.52404954815862</v>
+        <v>45.52404954815854</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.86569165741214</v>
+        <v>35.86569165741213</v>
       </c>
       <c r="C21">
-        <v>27.20878709328367</v>
+        <v>27.20878709328378</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.55948110772729</v>
+        <v>21.559481107727</v>
       </c>
       <c r="F21">
-        <v>90.21374417586982</v>
+        <v>90.21374417586929</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>49.59244754985469</v>
+        <v>49.59244754985416</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.72171919966068</v>
+        <v>37.72171919966071</v>
       </c>
       <c r="C22">
-        <v>28.67195766277061</v>
+        <v>28.67195766277055</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.20852649015108</v>
+        <v>23.20852649015104</v>
       </c>
       <c r="F22">
-        <v>95.2620675291307</v>
+        <v>95.26206752913053</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>52.42719382672818</v>
+        <v>52.4271938267281</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.72397304799883</v>
+        <v>36.72397304799885</v>
       </c>
       <c r="C23">
-        <v>27.88367002858945</v>
+        <v>27.88367002858933</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.30444017930084</v>
+        <v>22.30444017930089</v>
       </c>
       <c r="F23">
-        <v>92.53664155048266</v>
+        <v>92.53664155048257</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>50.89254713573196</v>
+        <v>50.89254713573194</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.06095901981239</v>
+        <v>33.06095901981219</v>
       </c>
       <c r="C24">
-        <v>25.02168627708368</v>
+        <v>25.02168627708383</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.31202916605911</v>
+        <v>19.3120291660589</v>
       </c>
       <c r="F24">
-        <v>82.74460339431351</v>
+        <v>82.74460339431306</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>45.45951716092869</v>
+        <v>45.45951716092842</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.17094527003074</v>
+        <v>29.17094527003065</v>
       </c>
       <c r="C25">
-        <v>22.02656741539738</v>
+        <v>22.02656741539727</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.5924020317582</v>
+        <v>16.59240203175805</v>
       </c>
       <c r="F25">
-        <v>72.64132514587637</v>
+        <v>72.64132514587585</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.98024819804154</v>
+        <v>39.98024819804104</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24982021238055</v>
+        <v>26.03576339611602</v>
       </c>
       <c r="C2">
-        <v>19.80031800495182</v>
+        <v>19.55531465536898</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.79872938045752</v>
+        <v>15.04115034136764</v>
       </c>
       <c r="F2">
-        <v>65.21489448868799</v>
+        <v>65.10304115505353</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.017370248161271</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.033899817436</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>36.03057074507161</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.20154318846298</v>
+        <v>24.00286449293026</v>
       </c>
       <c r="C3">
-        <v>18.24852872957238</v>
+        <v>18.01451611674956</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.6492040988529</v>
+        <v>13.9022125738167</v>
       </c>
       <c r="F3">
-        <v>60.0791775922912</v>
+        <v>59.99010483076409</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.036979847158955</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.34688580442597</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>33.36550889250908</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.90234220949376</v>
+        <v>22.713469845508</v>
       </c>
       <c r="C4">
-        <v>17.2675365970181</v>
+        <v>17.04026109974185</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.96183825400173</v>
+        <v>13.2209115854205</v>
       </c>
       <c r="F4">
-        <v>56.85042475279306</v>
+        <v>56.77521329467559</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.048983161850402</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.67639362007979</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>31.70884160427966</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.36153507746635</v>
+        <v>22.1767810481427</v>
       </c>
       <c r="C5">
-        <v>16.85985112459343</v>
+        <v>16.6353373780398</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.68472987022743</v>
+        <v>12.9461984433501</v>
       </c>
       <c r="F5">
-        <v>55.51286132829776</v>
+        <v>55.44333306876179</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.053881712154968</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.98885963545128</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>31.02707884317435</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.27102363885836</v>
+        <v>22.08696169572217</v>
       </c>
       <c r="C6">
-        <v>16.79165497884444</v>
+        <v>16.5676012909446</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.63885557615122</v>
+        <v>12.90071807710023</v>
       </c>
       <c r="F6">
-        <v>55.28936969942826</v>
+        <v>55.22078894819401</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.054695967718152</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.87424572243079</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>30.91343286195932</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.89509584481858</v>
+        <v>22.70627848842757</v>
       </c>
       <c r="C7">
-        <v>17.26207148923493</v>
+        <v>17.03483314938396</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.95809085919411</v>
+        <v>13.21719676494905</v>
       </c>
       <c r="F7">
-        <v>56.83247759958434</v>
+        <v>56.75734256767059</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.049049177048115</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.66715062453739</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>31.69967582422472</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.55158613101437</v>
+        <v>25.34277543126954</v>
       </c>
       <c r="C8">
-        <v>19.27055886513056</v>
+        <v>19.02936041236076</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.3974422353249</v>
+        <v>14.64362763950982</v>
       </c>
       <c r="F8">
-        <v>63.45782161228706</v>
+        <v>63.35389337478199</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.02415021081779</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.11059995745916</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>35.11480149898885</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.48462022895912</v>
+        <v>30.23786193309203</v>
       </c>
       <c r="C9">
-        <v>23.03371322646246</v>
+        <v>22.76385644736057</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.46502637303574</v>
+        <v>17.68015020719752</v>
       </c>
       <c r="F9">
-        <v>76.02383686929994</v>
+        <v>75.85841904700939</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.974078997204464</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.80060617339228</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>41.74902368806936</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.04318278060863</v>
+        <v>33.76611605619649</v>
       </c>
       <c r="C10">
-        <v>25.78464476746921</v>
+        <v>25.49031612031484</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.06866425276252</v>
+        <v>20.2520520043226</v>
       </c>
       <c r="F10">
-        <v>85.34061461478292</v>
+        <v>85.11804443674667</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.934696227561623</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.88791187615453</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>46.78878632385304</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.68452509565083</v>
+        <v>35.39185354773245</v>
       </c>
       <c r="C11">
-        <v>27.06669187697533</v>
+        <v>26.7593364040128</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.40589489626923</v>
+        <v>21.57034109462884</v>
       </c>
       <c r="F11">
-        <v>89.7258223059609</v>
+        <v>89.4706506848122</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.915557466927119</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>49.32026962046457</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>49.19529490995757</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.31425000405378</v>
+        <v>36.0152052818127</v>
       </c>
       <c r="C12">
-        <v>27.56114012113159</v>
+        <v>27.24839264085934</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.94518155859586</v>
+        <v>22.10136801357202</v>
       </c>
       <c r="F12">
-        <v>91.42536305469839</v>
+        <v>91.15622807621905</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.90804539356581</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>50.26968251436747</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>50.13385208731712</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.17815756122437</v>
+        <v>35.88051084367755</v>
       </c>
       <c r="C13">
-        <v>27.45415498910206</v>
+        <v>27.14259364626195</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.82733197771446</v>
+        <v>21.98535644536237</v>
       </c>
       <c r="F13">
-        <v>91.05721591649227</v>
+        <v>90.79117641672929</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.909676920371877</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>50.06370113576419</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>49.9302672722837</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.73613178236327</v>
+        <v>35.44294687217923</v>
       </c>
       <c r="C14">
-        <v>27.10715636781424</v>
+        <v>26.7993680371239</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.44951855098729</v>
+        <v>21.61331073243859</v>
       </c>
       <c r="F14">
-        <v>89.86472793844004</v>
+        <v>89.60844560114516</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.914945413334552</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>49.39772369462885</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>49.27188112156471</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.46663184394829</v>
+        <v>35.17611116043814</v>
       </c>
       <c r="C15">
-        <v>26.89595103598461</v>
+        <v>26.59040626317874</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.22280749165316</v>
+        <v>21.38997236699417</v>
       </c>
       <c r="F15">
-        <v>89.14005403578685</v>
+        <v>88.88950939332207</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.918134687856609</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>48.99392151076854</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>48.87257056217975</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.93674283689538</v>
+        <v>33.6606448215103</v>
       </c>
       <c r="C16">
-        <v>25.70181891133545</v>
+        <v>25.40829016934511</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.98515947860811</v>
+        <v>20.16966360941776</v>
       </c>
       <c r="F16">
-        <v>85.05831968968234</v>
+        <v>84.83770003009604</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.935915689516973</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>46.73217362234551</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>46.63461981699345</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.0068408999342</v>
+        <v>32.73901659225068</v>
       </c>
       <c r="C17">
-        <v>24.97973540748634</v>
+        <v>24.69299380499755</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.2712300794534</v>
+        <v>19.46498997969912</v>
       </c>
       <c r="F17">
-        <v>82.60214274988643</v>
+        <v>82.39784061704229</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.94645898294402</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>45.38137660677081</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>45.29709838156953</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.47371799844736</v>
+        <v>32.21049814299214</v>
       </c>
       <c r="C18">
-        <v>24.56693575332534</v>
+        <v>24.28393512422948</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.87410492145644</v>
+        <v>19.07280148166475</v>
       </c>
       <c r="F18">
-        <v>81.20182984297549</v>
+        <v>81.0063476145138</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.952415040013499</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.61464520913403</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>44.5376437546415</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.29339269662896</v>
+        <v>32.03170964110488</v>
       </c>
       <c r="C19">
-        <v>24.42749535012193</v>
+        <v>24.14573731906488</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18.74171514632565</v>
+        <v>18.94202566419561</v>
       </c>
       <c r="F19">
-        <v>80.72942687610309</v>
+        <v>80.53684758527473</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.954415175022714</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>44.35653537107814</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>44.28194561943615</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.1056224776483</v>
+        <v>32.83693447864268</v>
       </c>
       <c r="C20">
-        <v>25.05631477764961</v>
+        <v>24.76886850940539</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.34576896074089</v>
+        <v>19.5385858816508</v>
       </c>
       <c r="F20">
-        <v>82.8622196360393</v>
+        <v>82.65624247378817</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.945348343755616</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>45.52404954815854</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>45.43839767443706</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.86569165741213</v>
+        <v>35.57121111462634</v>
       </c>
       <c r="C21">
-        <v>27.20878709328378</v>
+        <v>26.89990514800549</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.559481107727</v>
+        <v>21.72161386812787</v>
       </c>
       <c r="F21">
-        <v>90.21374417586929</v>
+        <v>89.95464767380054</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.913406037759217</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>49.59244754985416</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>49.46440956155262</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.72171919966071</v>
+        <v>37.40745245318443</v>
       </c>
       <c r="C22">
-        <v>28.67195766277055</v>
+        <v>28.34617990132739</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.20852649015104</v>
+        <v>23.34374562559182</v>
       </c>
       <c r="F22">
-        <v>95.26206752913053</v>
+        <v>94.9580403176593</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.890907721726675</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>52.4271938267281</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>52.26470017025012</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.72397304799885</v>
+        <v>36.42064592591279</v>
       </c>
       <c r="C23">
-        <v>27.88367002858933</v>
+        <v>27.56727773882955</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.30444017930089</v>
+        <v>22.45490468461832</v>
       </c>
       <c r="F23">
-        <v>92.53664155048257</v>
+        <v>92.25791040652709</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.903106453396263</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>50.89254713573194</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>50.74932139753291</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.06095901981219</v>
+        <v>32.79266195674683</v>
       </c>
       <c r="C24">
-        <v>25.02168627708383</v>
+        <v>24.73455907791887</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.3120291660589</v>
+        <v>19.50527357828189</v>
       </c>
       <c r="F24">
-        <v>82.74460339431306</v>
+        <v>82.53938521881562</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.945850786086603</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>45.45951716092842</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>45.37448739194296</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.17094527003065</v>
+        <v>28.93458148373147</v>
       </c>
       <c r="C25">
-        <v>22.02656741539727</v>
+        <v>21.76480638608825</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.59240203175805</v>
+        <v>16.81694666003139</v>
       </c>
       <c r="F25">
-        <v>72.64132514587585</v>
+        <v>72.49377039757579</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.987913797621144</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.98024819804104</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>39.94428794158684</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
@@ -420,192 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>15.23703136364824</v>
+      </c>
+      <c r="C2">
+        <v>11.75137705828535</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>29.30875978198447</v>
+      </c>
       <c r="F2">
         <v>30.27884324296193</v>
+      </c>
+      <c r="G2">
+        <v>2.092253328354919</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>19.40881579440871</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>14.40689944323548</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>13.53842126673378</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>14.14731086932025</v>
+      </c>
+      <c r="C3">
+        <v>10.88810822080481</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>27.13785561999172</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
+        <v>28.16301984326747</v>
+      </c>
+      <c r="G3">
+        <v>2.101463694101349</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>19.17333475345186</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>13.38088606502319</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.75949887250936</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>13.44415029370312</v>
+      </c>
+      <c r="C4">
+        <v>10.33465556994431</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>25.74672576078343</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
+        <v>26.79314218379242</v>
+      </c>
+      <c r="G4">
+        <v>2.10722812917586</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>19.04731676432911</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>12.71946802385471</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.8994647099358</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>13.14890591169316</v>
+      </c>
+      <c r="C5">
+        <v>10.10312317340486</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>25.16474950766442</v>
+      </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
+      </c>
+      <c r="G5">
+        <v>2.109607143986795</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>19.00040301265204</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>12.44188547217881</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.95755082452995</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>13.09935157544154</v>
+      </c>
+      <c r="C6">
+        <v>10.06431237436692</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>25.06718961524183</v>
+      </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>26.1201820470107</v>
+      </c>
+      <c r="G6">
+        <v>2.110004056014662</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>18.99287447289781</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>12.3953029350851</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.9672590274635</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>13.44020392389602</v>
+      </c>
+      <c r="C7">
+        <v>10.3315574536647</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>25.73893864834417</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>26.78544435617556</v>
+      </c>
+      <c r="G7">
+        <v>2.107260088949192</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>19.04666639559883</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>12.71575722252372</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.90024384682025</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>14.86828242275428</v>
+      </c>
+      <c r="C8">
+        <v>11.4585059630908</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>28.57202647583489</v>
+      </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>29.56389055882486</v>
+      </c>
+      <c r="G8">
+        <v>2.095407962331115</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>19.32362935390808</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>14.05956649486515</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>13.6137630336529</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>17.40507753019691</v>
+      </c>
+      <c r="C9">
+        <v>13.48884354294387</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>33.68850933746291</v>
+      </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>34.45877994148617</v>
+      </c>
+      <c r="G9">
+        <v>2.072907189944578</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>20.0245405205287</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>16.45232196429589</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>13.08633635736266</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>19.11841923544626</v>
+      </c>
+      <c r="C10">
+        <v>14.88113680939663</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>37.2153738435304</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>37.72874519847221</v>
+      </c>
+      <c r="G10">
+        <v>2.05662945471985</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>20.65061582754799</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>18.07329055478358</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>12.72149654079268</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>19.86781990803113</v>
+      </c>
+      <c r="C11">
+        <v>15.49568743969483</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>38.77878961343398</v>
+      </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
+      </c>
+      <c r="G11">
+        <v>2.049227326536048</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>20.96305383512692</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>18.78371613689209</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>12.56102866865963</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>20.14753415155423</v>
+      </c>
+      <c r="C12">
+        <v>15.72596886675062</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>39.36585092512135</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
+      </c>
+      <c r="G12">
+        <v>2.046419618929666</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>21.08565836814092</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>19.0491220685291</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>12.50112406388161</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>20.08746928621465</v>
+      </c>
+      <c r="C13">
+        <v>15.6764772117018</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>39.23962152903522</v>
+      </c>
       <c r="F13">
         <v>39.5626640325822</v>
+      </c>
+      <c r="G13">
+        <v>2.047024606340448</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>21.059057015657</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>18.99211848349403</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>12.51398596661976</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>19.89091214930212</v>
+      </c>
+      <c r="C14">
+        <v>15.51467994760422</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>38.82718129937052</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
+      </c>
+      <c r="G14">
+        <v>2.048996460388036</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>20.97305264398014</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>18.80562211151203</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>12.55608255143626</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>19.76999342884328</v>
+      </c>
+      <c r="C15">
+        <v>15.41526599203092</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>38.57393236078322</v>
+      </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.96319309154516</v>
+      </c>
+      <c r="G15">
+        <v>2.050203504540817</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>20.92094130488694</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>18.69092500857811</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>12.58198247924175</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>19.06886073429039</v>
+      </c>
+      <c r="C16">
+        <v>14.84061804498336</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>37.11245195481732</v>
+      </c>
       <c r="F16">
-        <v>37.63463543028811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>37.6346354302881</v>
+      </c>
+      <c r="G16">
+        <v>2.057112839101986</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>20.63077971076643</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>18.02634149988358</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>12.73209974062373</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>18.63121906251299</v>
+      </c>
+      <c r="C17">
+        <v>14.48345112969364</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>36.20599818296687</v>
+      </c>
       <c r="F17">
-        <v>36.8022877826839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>36.80228778268389</v>
+      </c>
+      <c r="G17">
+        <v>2.061348806022006</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>20.46006841307964</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>17.6119101333726</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>12.82564464825653</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>18.37665816388524</v>
+      </c>
+      <c r="C18">
+        <v>14.27622921212027</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>35.68071049356179</v>
+      </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>2.063785820004824</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>20.3644601277613</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>17.37098502158492</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>12.87996164653051</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>18.28997325678784</v>
+      </c>
+      <c r="C19">
+        <v>14.20575263623444</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>35.50215817425077</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>36.1517249415006</v>
+      </c>
+      <c r="G19">
+        <v>2.064611196213229</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>20.33252282794855</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>17.28896569424348</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>12.89843861935223</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>18.67809910752043</v>
+      </c>
+      <c r="C20">
+        <v>14.52165548850787</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>36.30289116861628</v>
+      </c>
       <c r="F20">
-        <v>36.89155697731403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>36.89155697731401</v>
+      </c>
+      <c r="G20">
+        <v>2.060897852575094</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>20.47797167200085</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>17.65628973344674</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>12.8156331479693</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>19.94875399735455</v>
+      </c>
+      <c r="C21">
+        <v>15.56226746633611</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>38.94845179437949</v>
+      </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>2.048417450394503</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>20.99819505409096</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>18.86049652511327</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>12.54369373763198</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>20.75563215713182</v>
+      </c>
+      <c r="C22">
+        <v>16.22832874527948</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>40.64905049783595</v>
+      </c>
       <c r="F22">
-        <v>40.81974568026789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>40.81974568026788</v>
+      </c>
+      <c r="G22">
+        <v>2.040230550661862</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>21.36337694034608</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>19.62658164065273</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>12.37103223316033</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>20.32705172075559</v>
+      </c>
+      <c r="C23">
+        <v>15.87402324761555</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>39.74366474091367</v>
+      </c>
       <c r="F23">
-        <v>40.0141422503843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>40.01414225038419</v>
+      </c>
+      <c r="G23">
+        <v>2.0446047053401</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>21.16605357008</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>19.21952736760123</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>12.46269282252044</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>18.65691386116591</v>
+      </c>
+      <c r="C24">
+        <v>14.50438917933813</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>36.25909886003537</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>36.8512191057543</v>
+      </c>
+      <c r="G24">
+        <v>2.061101722961221</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>20.46986973339863</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>17.63623403004878</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>12.820157680374</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>16.74603657049626</v>
+      </c>
+      <c r="C25">
+        <v>12.95786296801523</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>32.34798550895503</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126715</v>
+      </c>
+      <c r="G25">
+        <v>2.078933888596504</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>19.81653033434369</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>15.82992437363778</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.22519715580753</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.23703136364824</v>
+        <v>11.99252434514551</v>
       </c>
       <c r="C2">
-        <v>11.75137705828535</v>
+        <v>8.253053475413243</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.30875978198447</v>
+        <v>16.31847163664813</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.092253328354919</v>
+        <v>3.671679663212849</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.40881579440871</v>
+        <v>25.45930078438566</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.40689944323548</v>
+        <v>12.56597086443528</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.53842126673378</v>
+        <v>20.10175556219518</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.14731086932025</v>
+        <v>11.71418294256921</v>
       </c>
       <c r="C3">
-        <v>10.88810822080481</v>
+        <v>7.989239252821621</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.13785561999172</v>
+        <v>15.40303801569763</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.101463694101349</v>
+        <v>3.674756691367645</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.17333475345186</v>
+        <v>25.47667431675478</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.38088606502319</v>
+        <v>12.36731976164734</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.75949887250936</v>
+        <v>20.1616107516428</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.44415029370312</v>
+        <v>11.54364770689598</v>
       </c>
       <c r="C4">
-        <v>10.33465556994431</v>
+        <v>7.825750856553686</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.74672576078343</v>
+        <v>14.81763563796413</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.10722812917586</v>
+        <v>3.67674073998142</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.04731676432911</v>
+        <v>25.49289254485977</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.71946802385471</v>
+        <v>12.24754701713519</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.8994647099358</v>
+        <v>20.20031657301585</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.14890591169316</v>
+        <v>11.47435791801514</v>
       </c>
       <c r="C5">
-        <v>10.10312317340486</v>
+        <v>7.758867006367395</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.16474950766442</v>
+        <v>14.57348992066987</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.109607143986795</v>
+        <v>3.677573173824426</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.00040301265204</v>
+        <v>25.50089197829189</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.44188547217881</v>
+        <v>12.19935699253761</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.95755082452995</v>
+        <v>20.21658124861571</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.09935157544154</v>
+        <v>11.46286809852263</v>
       </c>
       <c r="C6">
-        <v>10.06431237436692</v>
+        <v>7.747748807506741</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.06718961524183</v>
+        <v>14.53262119973611</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.110004056014662</v>
+        <v>3.677712846187589</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.99287447289781</v>
+        <v>25.50230408415776</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.3953029350851</v>
+        <v>12.19139430648562</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.9672590274635</v>
+        <v>20.2193116936986</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.44020392389602</v>
+        <v>11.54271226143597</v>
       </c>
       <c r="C7">
-        <v>10.3315574536647</v>
+        <v>7.824849733675326</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.73893864834417</v>
+        <v>14.8143652326184</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.107260088949192</v>
+        <v>3.676751869509356</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.04666639559883</v>
+        <v>25.49299480617859</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.71575722252372</v>
+        <v>12.24689452067156</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.90024384682025</v>
+        <v>20.20053393280291</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.86828242275428</v>
+        <v>11.89654240886094</v>
       </c>
       <c r="C8">
-        <v>11.4585059630908</v>
+        <v>8.16247097690902</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.57202647583489</v>
+        <v>16.00782013078562</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.095407962331115</v>
+        <v>3.672721016135536</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.32362935390808</v>
+        <v>25.46413600058789</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.05956649486515</v>
+        <v>12.49705875343292</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.6137630336529</v>
+        <v>20.12198813482953</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.40507753019691</v>
+        <v>12.5885532399939</v>
       </c>
       <c r="C9">
-        <v>13.48884354294387</v>
+        <v>8.807830572332268</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.68850933746291</v>
+        <v>18.18007734848568</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.072907189944578</v>
+        <v>3.665563925238366</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.0245405205287</v>
+        <v>25.45180892132626</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.45232196429589</v>
+        <v>13.00219010342267</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.08633635736266</v>
+        <v>19.9834552683365</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.11841923544626</v>
+        <v>13.08977314627468</v>
       </c>
       <c r="C10">
-        <v>14.88113680939663</v>
+        <v>9.265988471893058</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.2153738435304</v>
+        <v>19.80377231681776</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.05662945471985</v>
+        <v>3.660755172336625</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.65061582754799</v>
+        <v>25.47000989727561</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.07329055478358</v>
+        <v>13.37831398187437</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.72149654079268</v>
+        <v>19.89110266075042</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.86781990803113</v>
+        <v>13.31504800084631</v>
       </c>
       <c r="C11">
-        <v>15.49568743969483</v>
+        <v>9.469891166364768</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.77878961343398</v>
+        <v>20.50116567895176</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.049227326536048</v>
+        <v>3.658663862892237</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.96305383512692</v>
+        <v>25.48425491169316</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.78371613689209</v>
+        <v>13.54970424552934</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.56102866865963</v>
+        <v>19.85113271554965</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.14753415155423</v>
+        <v>13.3998707028657</v>
       </c>
       <c r="C12">
-        <v>15.72596886675062</v>
+        <v>9.546378194727627</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.36585092512135</v>
+        <v>20.7593588862059</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.046419618929666</v>
+        <v>3.657885674085342</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.08565836814092</v>
+        <v>25.49050955137065</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.0491220685291</v>
+        <v>13.61458193795215</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.50112406388161</v>
+        <v>19.83629062599436</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.08746928621465</v>
+        <v>13.38162552352128</v>
       </c>
       <c r="C13">
-        <v>15.6764772117018</v>
+        <v>9.529938797471129</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.23962152903522</v>
+        <v>20.70401396746519</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.047024606340448</v>
+        <v>3.658052661117788</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.059057015657</v>
+        <v>25.48912420421284</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.99211848349403</v>
+        <v>13.60061145980892</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.51398596661976</v>
+        <v>19.8394740734234</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.89091214930212</v>
+        <v>13.32203661427886</v>
       </c>
       <c r="C14">
-        <v>15.51467994760422</v>
+        <v>9.476198773161489</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.82718129937052</v>
+        <v>20.52252532573725</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.048996460388036</v>
+        <v>3.658599565887715</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.97305264398014</v>
+        <v>25.48475222942676</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.80562211151203</v>
+        <v>13.5550426235172</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.55608255143626</v>
+        <v>19.84990576200277</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.76999342884328</v>
+        <v>13.28547106351761</v>
       </c>
       <c r="C15">
-        <v>15.41526599203092</v>
+        <v>9.443184695243323</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.57393236078322</v>
+        <v>20.41059168159317</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.050203504540817</v>
+        <v>3.658936348114746</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.92094130488694</v>
+        <v>25.48218637781687</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.69092500857811</v>
+        <v>13.52712534649566</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.58198247924175</v>
+        <v>19.85633371837093</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.06886073429039</v>
+        <v>13.07498798832531</v>
       </c>
       <c r="C16">
-        <v>14.84061804498336</v>
+        <v>9.252565301736187</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.11245195481732</v>
+        <v>19.75736927556254</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.057112839101986</v>
+        <v>3.660893772653355</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.63077971076643</v>
+        <v>25.46919922293176</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.02634149988358</v>
+        <v>13.36711338509966</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.73209974062373</v>
+        <v>19.89375587993014</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.63121906251299</v>
+        <v>12.94509674611191</v>
       </c>
       <c r="C17">
-        <v>14.48345112969364</v>
+        <v>9.134412393397209</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.20599818296687</v>
+        <v>19.34610240495273</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.061348806022006</v>
+        <v>3.662119167635795</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.46006841307964</v>
+        <v>25.4627619095118</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.6119101333726</v>
+        <v>13.26897797200123</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.82564464825653</v>
+        <v>19.91723613112918</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.37665816388524</v>
+        <v>12.87013457957146</v>
       </c>
       <c r="C18">
-        <v>14.27622921212027</v>
+        <v>9.066033009676126</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.68071049356179</v>
+        <v>19.10566940421378</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.063785820004824</v>
+        <v>3.662833044194968</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.3644601277613</v>
+        <v>25.45962070792021</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.37098502158492</v>
+        <v>13.21256414768804</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.87996164653051</v>
+        <v>19.93093352075319</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.28997325678784</v>
+        <v>12.84471324846822</v>
       </c>
       <c r="C19">
-        <v>14.20575263623444</v>
+        <v>9.042811111907234</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.50215817425077</v>
+        <v>19.02359491878548</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.064611196213229</v>
+        <v>3.663076309678285</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.33252282794855</v>
+        <v>25.45865347816484</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.28896569424348</v>
+        <v>13.19347077006789</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.89843861935223</v>
+        <v>19.9356042255335</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.67809910752043</v>
+        <v>12.95895066815492</v>
       </c>
       <c r="C20">
-        <v>14.52165548850787</v>
+        <v>9.147034124533494</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.30289116861628</v>
+        <v>19.39028410535412</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>2.060897852575094</v>
+        <v>3.661987785053439</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.47797167200085</v>
+        <v>25.46338905243978</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.65628973344674</v>
+        <v>13.27942192180046</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.8156331479693</v>
+        <v>19.91471672923823</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.94875399735455</v>
+        <v>13.33955315065696</v>
       </c>
       <c r="C21">
-        <v>15.56226746633611</v>
+        <v>9.492003812231598</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.94845179437949</v>
+        <v>20.57599263827937</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.048417450394503</v>
+        <v>3.658438554398042</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.99819505409096</v>
+        <v>25.48601301729293</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.86049652511327</v>
+        <v>13.56842846166511</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.54369373763198</v>
+        <v>19.84683375161137</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.75563215713182</v>
+        <v>13.58544009858129</v>
       </c>
       <c r="C22">
-        <v>16.22832874527948</v>
+        <v>9.713196763976606</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.64905049783595</v>
+        <v>21.31657993932416</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.040230550661862</v>
+        <v>3.656198999436962</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.36337694034608</v>
+        <v>25.50581465336873</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.62658164065273</v>
+        <v>13.75714173739411</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.37103223316033</v>
+        <v>19.80418004086239</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.32705172075559</v>
+        <v>13.45449559965041</v>
       </c>
       <c r="C23">
-        <v>15.87402324761555</v>
+        <v>9.595555536253464</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.74366474091367</v>
+        <v>20.9244453774756</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475857</v>
       </c>
       <c r="G23">
-        <v>2.0446047053401</v>
+        <v>3.657386995482006</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.16605357008</v>
+        <v>25.4947865480721</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.21952736760123</v>
+        <v>13.65645851584139</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.46269282252044</v>
+        <v>19.8267884735701</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.65691386116591</v>
+        <v>12.95268819368485</v>
       </c>
       <c r="C24">
-        <v>14.50438917933813</v>
+        <v>9.141329240899132</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.25909886003537</v>
+        <v>19.37032199031024</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.061101722961221</v>
+        <v>3.66204715389134</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.46986973339863</v>
+        <v>25.46310377784116</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.63623403004878</v>
+        <v>13.27470018980359</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.820157680374</v>
+        <v>19.91585513315389</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.74603657049626</v>
+        <v>12.40219062007885</v>
       </c>
       <c r="C25">
-        <v>12.95786296801523</v>
+        <v>8.635665055990643</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.34798550895503</v>
+        <v>17.59503704796536</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295691</v>
       </c>
       <c r="G25">
-        <v>2.078933888596504</v>
+        <v>3.667420722324609</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.81653033434369</v>
+        <v>25.45037433351958</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.82992437363778</v>
+        <v>12.86438211941895</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.22519715580753</v>
+        <v>20.01927528353927</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.99252434514551</v>
+        <v>15.2370313636483</v>
       </c>
       <c r="C2">
-        <v>8.253053475413243</v>
+        <v>11.75137705828541</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.31847163664813</v>
+        <v>29.30875978198459</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.671679663212849</v>
+        <v>2.09225332835492</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.45930078438566</v>
+        <v>19.40881579440864</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.56597086443528</v>
+        <v>14.40689944323555</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.10175556219518</v>
+        <v>13.5384212667337</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.71418294256921</v>
+        <v>14.1473108693203</v>
       </c>
       <c r="C3">
-        <v>7.989239252821621</v>
+        <v>10.88810822080489</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.40303801569763</v>
+        <v>27.13785561999183</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.674756691367645</v>
+        <v>2.10146369410135</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.47667431675478</v>
+        <v>19.17333475345185</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.36731976164734</v>
+        <v>13.38088606502327</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.1616107516428</v>
+        <v>13.75949887250931</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.54364770689598</v>
+        <v>13.4441502937031</v>
       </c>
       <c r="C4">
-        <v>7.825750856553686</v>
+        <v>10.33465556994436</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.81763563796413</v>
+        <v>25.74672576078346</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.67674073998142</v>
+        <v>2.10722812917586</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.49289254485977</v>
+        <v>19.04731676432918</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.24754701713519</v>
+        <v>12.71946802385474</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.20031657301585</v>
+        <v>13.89946470993578</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.47435791801514</v>
+        <v>13.14890591169312</v>
       </c>
       <c r="C5">
-        <v>7.758867006367395</v>
+        <v>10.10312317340487</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.57348992066987</v>
+        <v>25.16474950766436</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.677573173824426</v>
+        <v>2.109607143986797</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.50089197829189</v>
+        <v>19.00040301265211</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.19935699253761</v>
+        <v>12.44188547217879</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.21658124861571</v>
+        <v>13.95755082452995</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.46286809852263</v>
+        <v>13.09935157544163</v>
       </c>
       <c r="C6">
-        <v>7.747748807506741</v>
+        <v>10.06431237436688</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.53262119973611</v>
+        <v>25.06718961524194</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.677712846187589</v>
+        <v>2.110004056014398</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.50230408415776</v>
+        <v>18.99287447289772</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.19139430648562</v>
+        <v>12.39530293508514</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.2193116936986</v>
+        <v>13.96725902746348</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.54271226143597</v>
+        <v>13.44020392389601</v>
       </c>
       <c r="C7">
-        <v>7.824849733675326</v>
+        <v>10.33155745366471</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.8143652326184</v>
+        <v>25.7389386483442</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.676751869509356</v>
+        <v>2.107260088949459</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.49299480617859</v>
+        <v>19.04666639559888</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.24689452067156</v>
+        <v>12.71575722252371</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.20053393280291</v>
+        <v>13.90024384682027</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.89654240886094</v>
+        <v>14.86828242275429</v>
       </c>
       <c r="C8">
-        <v>8.16247097690902</v>
+        <v>11.45850596309076</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.00782013078562</v>
+        <v>28.57202647583488</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.672721016135536</v>
+        <v>2.095407962331115</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.46413600058789</v>
+        <v>19.32362935390811</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.49705875343292</v>
+        <v>14.05956649486514</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.12198813482953</v>
+        <v>13.61376303365282</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.5885532399939</v>
+        <v>17.40507753019705</v>
       </c>
       <c r="C9">
-        <v>8.807830572332268</v>
+        <v>13.48884354294387</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.18007734848568</v>
+        <v>33.68850933746309</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.665563925238366</v>
+        <v>2.072907189944441</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.45180892132626</v>
+        <v>20.02454052052865</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.00219010342267</v>
+        <v>16.45232196429597</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.9834552683365</v>
+        <v>13.08633635736257</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.08977314627468</v>
+        <v>19.11841923544636</v>
       </c>
       <c r="C10">
-        <v>9.265988471893058</v>
+        <v>14.8811368093967</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.80377231681776</v>
+        <v>37.2153738435305</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>3.660755172336625</v>
+        <v>2.056629454720117</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.47000989727561</v>
+        <v>20.65061582754802</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.37831398187437</v>
+        <v>18.07329055478365</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.89110266075042</v>
+        <v>12.72149654079264</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.31504800084631</v>
+        <v>19.86781990803118</v>
       </c>
       <c r="C11">
-        <v>9.469891166364768</v>
+        <v>15.49568743969485</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.50116567895176</v>
+        <v>38.77878961343399</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>3.658663862892237</v>
+        <v>2.04922732653618</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.48425491169316</v>
+        <v>20.96305383512689</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.54970424552934</v>
+        <v>18.78371613689212</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.85113271554965</v>
+        <v>12.56102866865953</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.3998707028657</v>
+        <v>20.14753415155422</v>
       </c>
       <c r="C12">
-        <v>9.546378194727627</v>
+        <v>15.72596886675067</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.7593588862059</v>
+        <v>39.36585092512131</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.657885674085342</v>
+        <v>2.046419618930068</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.49050955137065</v>
+        <v>21.08565836814109</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.61458193795215</v>
+        <v>19.04912206852911</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.83629062599436</v>
+        <v>12.50112406388176</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.38162552352128</v>
+        <v>20.08746928621468</v>
       </c>
       <c r="C13">
-        <v>9.529938797471129</v>
+        <v>15.67647721170188</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.70401396746519</v>
+        <v>39.23962152903533</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.658052661117788</v>
+        <v>2.047024606340314</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.48912420421284</v>
+        <v>21.05905701565701</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.60061145980892</v>
+        <v>18.99211848349408</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.8394740734234</v>
+        <v>12.51398596661967</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.32203661427886</v>
+        <v>19.89091214930206</v>
       </c>
       <c r="C14">
-        <v>9.476198773161489</v>
+        <v>15.51467994760419</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.52252532573725</v>
+        <v>38.82718129937037</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>3.658599565887715</v>
+        <v>2.048996460388169</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.48475222942676</v>
+        <v>20.97305264398014</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.5550426235172</v>
+        <v>18.80562211151199</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.84990576200277</v>
+        <v>12.55608255143623</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.28547106351761</v>
+        <v>19.76999342884327</v>
       </c>
       <c r="C15">
-        <v>9.443184695243323</v>
+        <v>15.4152659920309</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.41059168159317</v>
+        <v>38.57393236078319</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>3.658936348114746</v>
+        <v>2.050203504540552</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.48218637781687</v>
+        <v>20.920941304887</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.52712534649566</v>
+        <v>18.6909250085781</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.85633371837093</v>
+        <v>12.58198247924171</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.07498798832531</v>
+        <v>19.06886073429038</v>
       </c>
       <c r="C16">
-        <v>9.252565301736187</v>
+        <v>14.84061804498324</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.75736927556254</v>
+        <v>37.11245195481725</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.660893772653355</v>
+        <v>2.057112839101985</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.46919922293176</v>
+        <v>20.63077971076649</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.36711338509966</v>
+        <v>18.02634149988349</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.89375587993014</v>
+        <v>12.73209974062379</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.94509674611191</v>
+        <v>18.63121906251308</v>
       </c>
       <c r="C17">
-        <v>9.134412393397209</v>
+        <v>14.48345112969365</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.34610240495273</v>
+        <v>36.205998182967</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>3.662119167635795</v>
+        <v>2.061348806022143</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.4627619095118</v>
+        <v>20.46006841307963</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.26897797200123</v>
+        <v>17.61191013337267</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.91723613112918</v>
+        <v>12.82564464825651</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.87013457957146</v>
+        <v>18.37665816388529</v>
       </c>
       <c r="C18">
-        <v>9.066033009676126</v>
+        <v>14.27622921212032</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.10566940421378</v>
+        <v>35.6807104935618</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>3.662833044194968</v>
+        <v>2.063785820004956</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.45962070792021</v>
+        <v>20.36446012776133</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.21256414768804</v>
+        <v>17.37098502158499</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.93093352075319</v>
+        <v>12.87996164653051</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.84471324846822</v>
+        <v>18.28997325678785</v>
       </c>
       <c r="C19">
-        <v>9.042811111907234</v>
+        <v>14.20575263623443</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.02359491878548</v>
+        <v>35.5021581742507</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415007</v>
       </c>
       <c r="G19">
-        <v>3.663076309678285</v>
+        <v>2.064611196213229</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.45865347816484</v>
+        <v>20.33252282794859</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.19347077006789</v>
+        <v>17.28896569424349</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.9356042255335</v>
+        <v>12.89843861935229</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.95895066815492</v>
+        <v>18.6780991075204</v>
       </c>
       <c r="C20">
-        <v>9.147034124533494</v>
+        <v>14.5216554885078</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.39028410535412</v>
+        <v>36.30289116861625</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>3.661987785053439</v>
+        <v>2.060897852575232</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.46338905243978</v>
+        <v>20.47797167200094</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.27942192180046</v>
+        <v>17.65628973344668</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.91471672923823</v>
+        <v>12.81563314796932</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.33955315065696</v>
+        <v>19.9487539973546</v>
       </c>
       <c r="C21">
-        <v>9.492003812231598</v>
+        <v>15.56226746633609</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.57599263827937</v>
+        <v>38.94845179437942</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>3.658438554398042</v>
+        <v>2.048417450394767</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.48601301729293</v>
+        <v>20.99819505409108</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.56842846166511</v>
+        <v>18.86049652511331</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.84683375161137</v>
+        <v>12.54369373763211</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.58544009858129</v>
+        <v>20.7556321571318</v>
       </c>
       <c r="C22">
-        <v>9.713196763976606</v>
+        <v>16.2283287452794</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.31657993932416</v>
+        <v>40.649050497836</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>3.656198999436962</v>
+        <v>2.040230550661731</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.50581465336873</v>
+        <v>21.3633769403461</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.75714173739411</v>
+        <v>19.62658164065269</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.80418004086239</v>
+        <v>12.37103223316033</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.45449559965041</v>
+        <v>20.32705172075559</v>
       </c>
       <c r="C23">
-        <v>9.595555536253464</v>
+        <v>15.87402324761549</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20.9244453774756</v>
+        <v>39.74366474091361</v>
       </c>
       <c r="F23">
-        <v>21.82633154475857</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>3.657386995482006</v>
+        <v>2.044604705340365</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.4947865480721</v>
+        <v>21.16605357008007</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.65645851584139</v>
+        <v>19.21952736760122</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.8267884735701</v>
+        <v>12.46269282252053</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.95268819368485</v>
+        <v>18.6569138611659</v>
       </c>
       <c r="C24">
-        <v>9.141329240899132</v>
+        <v>14.50438917933811</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.37032199031024</v>
+        <v>36.25909886003552</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.85121910575441</v>
       </c>
       <c r="G24">
-        <v>3.66204715389134</v>
+        <v>2.061101722961489</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.46310377784116</v>
+        <v>20.46986973339871</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.27470018980359</v>
+        <v>17.63623403004874</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.91585513315389</v>
+        <v>12.82015768037406</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.40219062007885</v>
+        <v>16.74603657049629</v>
       </c>
       <c r="C25">
-        <v>8.635665055990643</v>
+        <v>12.95786296801511</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.59503704796536</v>
+        <v>32.34798550895498</v>
       </c>
       <c r="F25">
-        <v>18.34778573295691</v>
+        <v>33.19272459126707</v>
       </c>
       <c r="G25">
-        <v>3.667420722324609</v>
+        <v>2.078933888596239</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.45037433351958</v>
+        <v>19.81653033434377</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.86438211941895</v>
+        <v>15.82992437363771</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.01927528353927</v>
+        <v>13.22519715580759</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.2370313636483</v>
+        <v>24.06846417515342</v>
       </c>
       <c r="C2">
-        <v>11.75137705828541</v>
+        <v>14.91718374857268</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.30875978198459</v>
+        <v>7.615939172415389</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>2.09225332835492</v>
+        <v>28.6513161441648</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.897370496310126</v>
       </c>
       <c r="I2">
-        <v>19.40881579440864</v>
+        <v>2.802759784132469</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.13155145994213</v>
       </c>
       <c r="K2">
-        <v>14.40689944323555</v>
+        <v>15.41815732987132</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.5384212667337</v>
+        <v>8.030715069603643</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.1473108693203</v>
+        <v>22.46538253315283</v>
       </c>
       <c r="C3">
-        <v>10.88810822080489</v>
+        <v>14.05488563905551</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.13785561999183</v>
+        <v>7.435583384879132</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.10146369410135</v>
+        <v>27.88788014161452</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.143776242648488</v>
       </c>
       <c r="I3">
-        <v>19.17333475345185</v>
+        <v>3.012654433414802</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.11191074577375</v>
       </c>
       <c r="K3">
-        <v>13.38088606502327</v>
+        <v>15.54127042514638</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.75949887250931</v>
+        <v>7.680782747468755</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.4441502937031</v>
+        <v>21.44096467048186</v>
       </c>
       <c r="C4">
-        <v>10.33465556994436</v>
+        <v>13.50149305532068</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.74672576078346</v>
+        <v>7.321378986545748</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.10722812917586</v>
+        <v>27.42381171811527</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.299961493801777</v>
       </c>
       <c r="I4">
-        <v>19.04731676432918</v>
+        <v>3.146318186719676</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.10376753175196</v>
       </c>
       <c r="K4">
-        <v>12.71946802385474</v>
+        <v>15.62191574019273</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.89946470993578</v>
+        <v>7.458065073468982</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.14890591169312</v>
+        <v>21.00906885139988</v>
       </c>
       <c r="C5">
-        <v>10.10312317340487</v>
+        <v>13.27847824383035</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.16474950766436</v>
+        <v>7.272262570839788</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.109607143986797</v>
+        <v>27.19595495309848</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.365265816261959</v>
       </c>
       <c r="I5">
-        <v>19.00040301265211</v>
+        <v>3.204872541401896</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.09423774697295</v>
       </c>
       <c r="K5">
-        <v>12.44188547217879</v>
+        <v>15.6429716147783</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.95755082452995</v>
+        <v>7.365944713720375</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.09935157544163</v>
+        <v>20.93651236719757</v>
       </c>
       <c r="C6">
-        <v>10.06431237436688</v>
+        <v>13.25145267279474</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.06718961524194</v>
+        <v>7.261985117421922</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.110004056014398</v>
+        <v>27.10923131636972</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.376675562997752</v>
       </c>
       <c r="I6">
-        <v>18.99287447289772</v>
+        <v>3.218349191214692</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.08397720203298</v>
       </c>
       <c r="K6">
-        <v>12.39530293508514</v>
+        <v>15.63068693550231</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.96725902746348</v>
+        <v>7.351198124848127</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.44020392389601</v>
+        <v>21.4352654285475</v>
       </c>
       <c r="C7">
-        <v>10.33155745366471</v>
+        <v>13.52625492840261</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.7389386483442</v>
+        <v>7.315139348504629</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.107260088949459</v>
+        <v>27.28810964791385</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.302149300530004</v>
       </c>
       <c r="I7">
-        <v>19.04666639559888</v>
+        <v>3.156884225281571</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.07982534906971</v>
       </c>
       <c r="K7">
-        <v>12.71575722252371</v>
+        <v>15.57884948806033</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.90024384682027</v>
+        <v>7.458618732300019</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.86828242275429</v>
+        <v>23.52717587988076</v>
       </c>
       <c r="C8">
-        <v>11.45850596309076</v>
+        <v>14.65917850828545</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.57202647583488</v>
+        <v>7.547384704313104</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.095407962331115</v>
+        <v>28.21746831844211</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.982961290874054</v>
       </c>
       <c r="I8">
-        <v>19.32362935390811</v>
+        <v>2.886877215419639</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.09270185914924</v>
       </c>
       <c r="K8">
-        <v>14.05956649486514</v>
+        <v>15.40209050743815</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.61376303365282</v>
+        <v>7.914003681631156</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.40507753019705</v>
+        <v>27.200569261523</v>
       </c>
       <c r="C9">
-        <v>13.48884354294387</v>
+        <v>16.64470883544757</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.68850933746309</v>
+        <v>7.985385232303164</v>
       </c>
       <c r="F9">
-        <v>34.45877994148621</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.072907189944441</v>
+        <v>30.29845903340916</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.724611046448707</v>
       </c>
       <c r="I9">
-        <v>20.02454052052865</v>
+        <v>2.575808647374432</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.19338563091368</v>
       </c>
       <c r="K9">
-        <v>16.45232196429597</v>
+        <v>15.17742289616416</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.08633635736257</v>
+        <v>8.738970559741695</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.11841923544636</v>
+        <v>29.61297046797942</v>
       </c>
       <c r="C10">
-        <v>14.8811368093967</v>
+        <v>18.06533092003008</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.2153738435305</v>
+        <v>8.205322031061392</v>
       </c>
       <c r="F10">
-        <v>37.72874519847226</v>
+        <v>37.72874519847218</v>
       </c>
       <c r="G10">
-        <v>2.056629454720117</v>
+        <v>31.21954620823609</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.115959026335073</v>
       </c>
       <c r="I10">
-        <v>20.65061582754802</v>
+        <v>2.914259326803895</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.16831577395502</v>
       </c>
       <c r="K10">
-        <v>18.07329055478365</v>
+        <v>14.82306109562354</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.72149654079264</v>
+        <v>9.166900872591832</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.86781990803118</v>
+        <v>30.62619364789404</v>
       </c>
       <c r="C11">
-        <v>15.49568743969485</v>
+        <v>19.30770824129234</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.77878961343399</v>
+        <v>7.819073797931742</v>
       </c>
       <c r="F11">
-        <v>39.14805722232853</v>
+        <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>2.04922732653618</v>
+        <v>26.64717712898214</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.979836688902134</v>
       </c>
       <c r="I11">
-        <v>20.96305383512689</v>
+        <v>3.014921459579403</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.18715299779317</v>
       </c>
       <c r="K11">
-        <v>18.78371613689212</v>
+        <v>12.98429616022377</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.56102866865953</v>
+        <v>8.204559817024583</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.14753415155422</v>
+        <v>30.99425212931889</v>
       </c>
       <c r="C12">
-        <v>15.72596886675067</v>
+        <v>20.04834735530311</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.36585092512131</v>
+        <v>7.813140409164292</v>
       </c>
       <c r="F12">
         <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>2.046419618930068</v>
+        <v>22.74086395335355</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.219903345180887</v>
       </c>
       <c r="I12">
-        <v>21.08565836814109</v>
+        <v>3.032571079154984</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.425580912773663</v>
       </c>
       <c r="K12">
-        <v>19.04912206852911</v>
+        <v>11.77232535619791</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.50112406388176</v>
+        <v>7.329592035153267</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.08746928621468</v>
+        <v>30.90020241012282</v>
       </c>
       <c r="C13">
-        <v>15.67647721170188</v>
+        <v>20.50150989678161</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.23962152903533</v>
+        <v>8.083651086531102</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.5626640326014</v>
       </c>
       <c r="G13">
-        <v>2.047024606340314</v>
+        <v>18.87506653062053</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.528308029078239</v>
       </c>
       <c r="I13">
-        <v>21.05905701565701</v>
+        <v>2.990932281584181</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.763916126924775</v>
       </c>
       <c r="K13">
-        <v>18.99211848349408</v>
+        <v>10.98418565788479</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.51398596661967</v>
+        <v>6.468923181374965</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.89091214930206</v>
+        <v>30.62428226587115</v>
       </c>
       <c r="C14">
-        <v>15.51467994760419</v>
+        <v>20.70293406284176</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.82718129937037</v>
+        <v>8.427506721454584</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.048996460388169</v>
+        <v>16.18011525458008</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.468706865714428</v>
       </c>
       <c r="I14">
-        <v>20.97305264398014</v>
+        <v>2.936624391788295</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.361086587691062</v>
       </c>
       <c r="K14">
-        <v>18.80562211151199</v>
+        <v>10.70284972243262</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.55608255143623</v>
+        <v>5.888488110687303</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.76999342884327</v>
+        <v>30.4566912751066</v>
       </c>
       <c r="C15">
-        <v>15.4152659920309</v>
+        <v>20.69900994710738</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.57393236078319</v>
+        <v>8.519565492902952</v>
       </c>
       <c r="F15">
-        <v>38.96319309154514</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>2.050203504540552</v>
+        <v>15.5068600788023</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.681969734102743</v>
       </c>
       <c r="I15">
-        <v>20.920941304887</v>
+        <v>2.911216869524126</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.277413653640311</v>
       </c>
       <c r="K15">
-        <v>18.6909250085781</v>
+        <v>10.69503460849512</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.58198247924171</v>
+        <v>5.747250544722426</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.06886073429038</v>
+        <v>29.48775010399568</v>
       </c>
       <c r="C16">
-        <v>14.84061804498324</v>
+        <v>20.07585489595113</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.11245195481725</v>
+        <v>8.361263904032477</v>
       </c>
       <c r="F16">
-        <v>37.63463543028804</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>2.057112839101985</v>
+        <v>15.70782906994408</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.453483265259127</v>
       </c>
       <c r="I16">
-        <v>20.63077971076649</v>
+        <v>2.776505416973204</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.421760137135633</v>
       </c>
       <c r="K16">
-        <v>18.02634149988349</v>
+        <v>11.02402762643297</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.73209974062379</v>
+        <v>5.700668719877091</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.63121906251308</v>
+        <v>28.8812099271139</v>
       </c>
       <c r="C17">
-        <v>14.48345112969365</v>
+        <v>19.4744015335862</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.205998182967</v>
+        <v>8.024344548410536</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>2.061348806022143</v>
+        <v>17.27506141704632</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.708963777795609</v>
       </c>
       <c r="I17">
-        <v>20.46006841307963</v>
+        <v>2.702086320710686</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.732037935194372</v>
       </c>
       <c r="K17">
-        <v>17.61191013337267</v>
+        <v>11.38079820450474</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.82564464825651</v>
+        <v>5.97064642899998</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.37665816388529</v>
+        <v>28.53311474367226</v>
       </c>
       <c r="C18">
-        <v>14.27622921212032</v>
+        <v>18.81438357885989</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.6807104935618</v>
+        <v>7.649522145570425</v>
       </c>
       <c r="F18">
-        <v>36.31710943239627</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.063785820004956</v>
+        <v>20.34717270707719</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.433995406106591</v>
       </c>
       <c r="I18">
-        <v>20.36446012776133</v>
+        <v>2.670669769152566</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.268736612886487</v>
       </c>
       <c r="K18">
-        <v>17.37098502158499</v>
+        <v>11.99364488019672</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.87996164653051</v>
+        <v>6.59021985761857</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.28997325678785</v>
+        <v>28.4248717006303</v>
       </c>
       <c r="C19">
-        <v>14.20575263623443</v>
+        <v>18.21850067634747</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.5021581742507</v>
+        <v>7.539978094114833</v>
       </c>
       <c r="F19">
-        <v>36.1517249415007</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.064611196213229</v>
+        <v>24.26896404833062</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.014277325294769</v>
       </c>
       <c r="I19">
-        <v>20.33252282794859</v>
+        <v>2.691020745855536</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.961591859427569</v>
       </c>
       <c r="K19">
-        <v>17.28896569424349</v>
+        <v>12.95516962467068</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.89843861935229</v>
+        <v>7.49215516744721</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.6780991075204</v>
+        <v>28.99677826943981</v>
       </c>
       <c r="C20">
-        <v>14.5216554885078</v>
+        <v>17.77309059509152</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.30289116861625</v>
+        <v>8.129540995973738</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.060897852575232</v>
+        <v>30.58796400831207</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.009354151844037</v>
       </c>
       <c r="I20">
-        <v>20.47797167200094</v>
+        <v>2.836161626992512</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.09721207986791</v>
       </c>
       <c r="K20">
-        <v>17.65628973344668</v>
+        <v>14.77179946631615</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.81563314796932</v>
+        <v>9.055198292985851</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.9487539973546</v>
+        <v>30.76463566821872</v>
       </c>
       <c r="C21">
-        <v>15.56226746633609</v>
+        <v>18.70275622252269</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.94845179437942</v>
+        <v>8.428123497441966</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.048417450394767</v>
+        <v>32.26145290232481</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.322876067444577</v>
       </c>
       <c r="I21">
-        <v>20.99819505409108</v>
+        <v>3.100384392392921</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.2741670836211</v>
       </c>
       <c r="K21">
-        <v>18.86049652511331</v>
+        <v>14.85101720776226</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.54369373763211</v>
+        <v>9.580847524641849</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.7556321571318</v>
+        <v>31.86914908499712</v>
       </c>
       <c r="C22">
-        <v>16.2283287452794</v>
+        <v>19.29828816989254</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.649050497836</v>
+        <v>8.58364553452536</v>
       </c>
       <c r="F22">
-        <v>40.81974568026786</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>2.040230550661731</v>
+        <v>33.20635047004233</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.519357362808702</v>
       </c>
       <c r="I22">
-        <v>21.3633769403461</v>
+        <v>3.264187673595483</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.36743029777094</v>
       </c>
       <c r="K22">
-        <v>19.62658164065269</v>
+        <v>14.86543580090926</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.37103223316033</v>
+        <v>9.843866953354333</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.32705172075559</v>
+        <v>31.28475751073719</v>
       </c>
       <c r="C23">
-        <v>15.87402324761549</v>
+        <v>18.9576804331652</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.74366474091361</v>
+        <v>8.506334357172367</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.044604705340365</v>
+        <v>32.83254012249833</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.415936275037605</v>
       </c>
       <c r="I23">
-        <v>21.16605357008007</v>
+        <v>3.173324673617131</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.34376030094294</v>
       </c>
       <c r="K23">
-        <v>19.21952736760122</v>
+        <v>14.90789534199891</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.46269282252053</v>
+        <v>9.702499124608018</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.6569138611659</v>
+        <v>28.97020818287438</v>
       </c>
       <c r="C24">
-        <v>14.50438917933811</v>
+        <v>17.66300821158433</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.25909886003552</v>
+        <v>8.200426603668657</v>
       </c>
       <c r="F24">
-        <v>36.85121910575441</v>
+        <v>36.85121910575432</v>
       </c>
       <c r="G24">
-        <v>2.061101722961489</v>
+        <v>31.21983217154292</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.016177726063292</v>
       </c>
       <c r="I24">
-        <v>20.46986973339871</v>
+        <v>2.830662572768086</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.22371648519357</v>
       </c>
       <c r="K24">
-        <v>17.63623403004874</v>
+        <v>15.00655420379151</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.82015768037406</v>
+        <v>9.153226442321509</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.74603657049629</v>
+        <v>26.25605900015935</v>
       </c>
       <c r="C25">
-        <v>12.95786296801511</v>
+        <v>16.17103602907685</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.34798550895498</v>
+        <v>7.860539172609498</v>
       </c>
       <c r="F25">
-        <v>33.19272459126707</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.078933888596239</v>
+        <v>29.51306249488123</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.570470395825858</v>
       </c>
       <c r="I25">
-        <v>19.81653033434377</v>
+        <v>2.531323580839993</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.12025840498732</v>
       </c>
       <c r="K25">
-        <v>15.82992437363771</v>
+        <v>15.15458000133891</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.22519715580759</v>
+        <v>8.526018034731706</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.06846417515342</v>
+        <v>24.10778543313952</v>
       </c>
       <c r="C2">
-        <v>14.91718374857268</v>
+        <v>15.22493562270001</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.615939172415389</v>
+        <v>7.506097780805927</v>
       </c>
       <c r="F2">
-        <v>30.27884324296192</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>28.6513161441648</v>
+        <v>25.6212635035645</v>
       </c>
       <c r="H2">
-        <v>1.897370496310126</v>
+        <v>1.809888247696045</v>
       </c>
       <c r="I2">
-        <v>2.802759784132469</v>
+        <v>2.696226286617879</v>
       </c>
       <c r="J2">
-        <v>10.13155145994213</v>
+        <v>10.05438625813268</v>
       </c>
       <c r="K2">
-        <v>15.41815732987132</v>
+        <v>14.40206331589842</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.16787206491447</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.139208955931361</v>
       </c>
       <c r="N2">
-        <v>8.030715069603643</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.128980114233372</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.46538253315283</v>
+        <v>22.51275242537719</v>
       </c>
       <c r="C3">
-        <v>14.05488563905551</v>
+        <v>14.28384042822281</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.435583384879132</v>
+        <v>7.357890293082887</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326741</v>
       </c>
       <c r="G3">
-        <v>27.88788014161452</v>
+        <v>25.19527860784432</v>
       </c>
       <c r="H3">
-        <v>2.143776242648488</v>
+        <v>2.031814798225425</v>
       </c>
       <c r="I3">
-        <v>3.012654433414802</v>
+        <v>2.877210924731287</v>
       </c>
       <c r="J3">
-        <v>10.11191074577375</v>
+        <v>10.04583533903579</v>
       </c>
       <c r="K3">
-        <v>15.54127042514638</v>
+        <v>14.61669090246663</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.37141998027622</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.278008673659217</v>
       </c>
       <c r="N3">
-        <v>7.680782747468755</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.78607977576872</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.44096467048186</v>
+        <v>21.47326670801474</v>
       </c>
       <c r="C4">
-        <v>13.50149305532068</v>
+        <v>13.67851659860547</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.321378986545748</v>
+        <v>7.264034996964345</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>26.79314218379238</v>
       </c>
       <c r="G4">
-        <v>27.42381171811527</v>
+        <v>24.94536445583443</v>
       </c>
       <c r="H4">
-        <v>2.299961493801777</v>
+        <v>2.172603135218025</v>
       </c>
       <c r="I4">
-        <v>3.146318186719676</v>
+        <v>2.992876829061076</v>
       </c>
       <c r="J4">
-        <v>10.10376753175196</v>
+        <v>10.04132565621756</v>
       </c>
       <c r="K4">
-        <v>15.62191574019273</v>
+        <v>14.75150178450877</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.4974334413124</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.383429351386059</v>
       </c>
       <c r="N4">
-        <v>7.458065073468982</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.568159157862185</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.00906885139988</v>
+        <v>21.03432861001918</v>
       </c>
       <c r="C5">
-        <v>13.27847824383035</v>
+        <v>13.43269645382408</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.272262570839788</v>
+        <v>7.223653838789969</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>27.19595495309848</v>
+        <v>24.81156063042923</v>
       </c>
       <c r="H5">
-        <v>2.365265816261959</v>
+        <v>2.23150036989734</v>
       </c>
       <c r="I5">
-        <v>3.204872541401896</v>
+        <v>3.044499527438352</v>
       </c>
       <c r="J5">
-        <v>10.09423774697295</v>
+        <v>10.03367027080232</v>
       </c>
       <c r="K5">
-        <v>15.6429716147783</v>
+        <v>14.79674881463716</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.5395380876915</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.425187156268612</v>
       </c>
       <c r="N5">
-        <v>7.365944713720375</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.478033984876889</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.93651236719757</v>
+        <v>20.96033740420479</v>
       </c>
       <c r="C6">
-        <v>13.25145267279474</v>
+        <v>13.40089431648911</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.261985117421922</v>
+        <v>7.215190308915351</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>27.10923131636972</v>
+        <v>24.74705424309424</v>
       </c>
       <c r="H6">
-        <v>2.376675562997752</v>
+        <v>2.241796760403594</v>
       </c>
       <c r="I6">
-        <v>3.218349191214692</v>
+        <v>3.057444026119145</v>
       </c>
       <c r="J6">
-        <v>10.08397720203298</v>
+        <v>10.02509997227459</v>
       </c>
       <c r="K6">
-        <v>15.63068693550231</v>
+        <v>14.79161948748999</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.53495382632953</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.425004182079382</v>
       </c>
       <c r="N6">
-        <v>7.351198124848127</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.463518125594431</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.4352654285475</v>
+        <v>21.46662459076983</v>
       </c>
       <c r="C7">
-        <v>13.52625492840261</v>
+        <v>13.68786780104924</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.315139348504629</v>
+        <v>7.259112127202248</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>27.28810964791385</v>
+        <v>24.87263702376846</v>
       </c>
       <c r="H7">
-        <v>2.302149300530004</v>
+        <v>2.175361113202054</v>
       </c>
       <c r="I7">
-        <v>3.156884225281571</v>
+        <v>3.00577969844882</v>
       </c>
       <c r="J7">
-        <v>10.07982534906971</v>
+        <v>9.972501960212957</v>
       </c>
       <c r="K7">
-        <v>15.57884948806033</v>
+        <v>14.70153908171691</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.45268647322676</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.353247825149724</v>
       </c>
       <c r="N7">
-        <v>7.458618732300019</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.567261141324716</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.52717587988076</v>
+        <v>23.56873705091409</v>
       </c>
       <c r="C8">
-        <v>14.65917850828545</v>
+        <v>14.89844629501414</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.547384704313104</v>
+        <v>7.450697816110676</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>29.56389055882484</v>
       </c>
       <c r="G8">
-        <v>28.21746831844211</v>
+        <v>25.46966007251555</v>
       </c>
       <c r="H8">
-        <v>1.982961290874054</v>
+        <v>1.88935029482468</v>
       </c>
       <c r="I8">
-        <v>2.886877215419639</v>
+        <v>2.774986936013832</v>
       </c>
       <c r="J8">
-        <v>10.09270185914924</v>
+        <v>9.866408251277671</v>
       </c>
       <c r="K8">
-        <v>15.40209050743815</v>
+        <v>14.37804809946592</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.15703631648692</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.115365175775008</v>
       </c>
       <c r="N8">
-        <v>7.914003681631156</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.010533337020476</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.200569261523</v>
+        <v>27.21880306272514</v>
       </c>
       <c r="C9">
-        <v>16.64470883544757</v>
+        <v>17.05805170195415</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.985385232303164</v>
+        <v>7.811150097447886</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>34.45877994146112</v>
       </c>
       <c r="G9">
-        <v>30.29845903340916</v>
+        <v>26.77221087695593</v>
       </c>
       <c r="H9">
-        <v>1.724611046448707</v>
+        <v>1.757602187501635</v>
       </c>
       <c r="I9">
-        <v>2.575808647374432</v>
+        <v>2.624831667995785</v>
       </c>
       <c r="J9">
-        <v>10.19338563091368</v>
+        <v>9.874351025448625</v>
       </c>
       <c r="K9">
-        <v>15.17742289616416</v>
+        <v>13.88806450193718</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.68630598948835</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.896811811663522</v>
       </c>
       <c r="N9">
-        <v>8.738970559741695</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.820006961705856</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.61297046797942</v>
+        <v>29.61187973418392</v>
       </c>
       <c r="C10">
-        <v>18.06533092003008</v>
+        <v>18.51157186676447</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.205322031061392</v>
+        <v>7.989566256251281</v>
       </c>
       <c r="F10">
-        <v>37.72874519847218</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>31.21954620823609</v>
+        <v>27.53717344546697</v>
       </c>
       <c r="H10">
-        <v>2.115959026335073</v>
+        <v>2.105114738833836</v>
       </c>
       <c r="I10">
-        <v>2.914259326803895</v>
+        <v>2.914656657918842</v>
       </c>
       <c r="J10">
-        <v>10.16831577395502</v>
+        <v>9.533821671094065</v>
       </c>
       <c r="K10">
-        <v>14.82306109562354</v>
+        <v>13.30653794770443</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.18396109110444</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.641041943601703</v>
       </c>
       <c r="N10">
-        <v>9.166900872591832</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.230920000605217</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.62619364789404</v>
+        <v>30.61783416744947</v>
       </c>
       <c r="C11">
-        <v>19.30770824129234</v>
+        <v>19.49515714710479</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.819073797931742</v>
+        <v>7.656331640668772</v>
       </c>
       <c r="F11">
         <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>26.64717712898214</v>
+        <v>24.30370634143894</v>
       </c>
       <c r="H11">
-        <v>2.979836688902134</v>
+        <v>2.960604612469549</v>
       </c>
       <c r="I11">
-        <v>3.014921459579403</v>
+        <v>2.999879447286451</v>
       </c>
       <c r="J11">
-        <v>9.18715299779317</v>
+        <v>8.354389670789089</v>
       </c>
       <c r="K11">
-        <v>12.98429616022377</v>
+        <v>11.82953356077237</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.210287443433</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.407658689717701</v>
       </c>
       <c r="N11">
-        <v>8.204559817024583</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.237879602111486</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.99425212931889</v>
+        <v>30.98414410918559</v>
       </c>
       <c r="C12">
-        <v>20.04834735530311</v>
+        <v>20.04012052660499</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.813140409164292</v>
+        <v>7.674214388342028</v>
       </c>
       <c r="F12">
         <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>22.74086395335355</v>
+        <v>21.37454531661296</v>
       </c>
       <c r="H12">
-        <v>4.219903345180887</v>
+        <v>4.204533310664942</v>
       </c>
       <c r="I12">
-        <v>3.032571079154984</v>
+        <v>3.013169519440223</v>
       </c>
       <c r="J12">
-        <v>8.425580912773663</v>
+        <v>7.729011288595203</v>
       </c>
       <c r="K12">
-        <v>11.77232535619791</v>
+        <v>11.02018805850707</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.745852796497143</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.627998870695754</v>
       </c>
       <c r="N12">
-        <v>7.329592035153267</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.344497547728007</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.90020241012282</v>
+        <v>30.89299655751858</v>
       </c>
       <c r="C13">
-        <v>20.50150989678161</v>
+        <v>20.35271565798257</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.083651086531102</v>
+        <v>7.957198036127837</v>
       </c>
       <c r="F13">
         <v>39.5626640326014</v>
       </c>
       <c r="G13">
-        <v>18.87506653062053</v>
+        <v>18.18224024670454</v>
       </c>
       <c r="H13">
-        <v>5.528308029078239</v>
+        <v>5.519242616892046</v>
       </c>
       <c r="I13">
-        <v>2.990932281584181</v>
+        <v>2.978340707916957</v>
       </c>
       <c r="J13">
-        <v>7.763916126924775</v>
+        <v>7.448079349128911</v>
       </c>
       <c r="K13">
-        <v>10.98418565788479</v>
+        <v>10.63890939728616</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.559686317787634</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.183663354309911</v>
       </c>
       <c r="N13">
-        <v>6.468923181374965</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.476087557122637</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.62428226587115</v>
+        <v>30.62103608871386</v>
       </c>
       <c r="C14">
-        <v>20.70293406284176</v>
+        <v>20.47707882186955</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.427506721454584</v>
+        <v>8.305942698087303</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>16.18011525458008</v>
+        <v>15.81232475883128</v>
       </c>
       <c r="H14">
-        <v>6.468706865714428</v>
+        <v>6.463853771675271</v>
       </c>
       <c r="I14">
-        <v>2.936624391788295</v>
+        <v>2.933944103616684</v>
       </c>
       <c r="J14">
-        <v>7.361086587691062</v>
+        <v>7.36170500966144</v>
       </c>
       <c r="K14">
-        <v>10.70284972243262</v>
+        <v>10.57235733203375</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.539395144115943</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.062463126556724</v>
       </c>
       <c r="N14">
-        <v>5.888488110687303</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.895562391316473</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.4566912751066</v>
+        <v>30.45542190960549</v>
       </c>
       <c r="C15">
-        <v>20.69900994710738</v>
+        <v>20.46402305455811</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.519565492902952</v>
+        <v>8.401712254131928</v>
       </c>
       <c r="F15">
         <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>15.5068600788023</v>
+        <v>15.16542107634751</v>
       </c>
       <c r="H15">
-        <v>6.681969734102743</v>
+        <v>6.678628898861044</v>
       </c>
       <c r="I15">
-        <v>2.911216869524126</v>
+        <v>2.913994795721587</v>
       </c>
       <c r="J15">
-        <v>7.277413653640311</v>
+        <v>7.375341662092874</v>
       </c>
       <c r="K15">
-        <v>10.69503460849512</v>
+        <v>10.60183972206699</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.553633174702231</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.080501147512622</v>
       </c>
       <c r="N15">
-        <v>5.747250544722426</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.75635578150527</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.48775010399568</v>
+        <v>29.49615102839522</v>
       </c>
       <c r="C16">
-        <v>20.07585489595113</v>
+        <v>19.93548805919788</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.361263904032477</v>
+        <v>8.277470163714552</v>
       </c>
       <c r="F16">
         <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>15.70782906994408</v>
+        <v>14.96487978688975</v>
       </c>
       <c r="H16">
-        <v>6.453483265259127</v>
+        <v>6.451179629803729</v>
       </c>
       <c r="I16">
-        <v>2.776505416973204</v>
+        <v>2.804294660474212</v>
       </c>
       <c r="J16">
-        <v>7.421760137135633</v>
+        <v>7.736137226017944</v>
       </c>
       <c r="K16">
-        <v>11.02402762643297</v>
+        <v>10.90746975564888</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.668993534946816</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.391115813689672</v>
       </c>
       <c r="N16">
-        <v>5.700668719877091</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.726995001520308</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.8812099271139</v>
+        <v>28.8946260136971</v>
       </c>
       <c r="C17">
-        <v>19.4744015335862</v>
+        <v>19.43476511042661</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.024344548410536</v>
+        <v>7.959759407176814</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>17.27506141704632</v>
+        <v>16.12451303070351</v>
       </c>
       <c r="H17">
-        <v>5.708963777795609</v>
+        <v>5.703151242861194</v>
       </c>
       <c r="I17">
-        <v>2.702086320710686</v>
+        <v>2.743246312292295</v>
       </c>
       <c r="J17">
-        <v>7.732037935194372</v>
+        <v>8.084323052455023</v>
       </c>
       <c r="K17">
-        <v>11.38079820450474</v>
+        <v>11.19451438641117</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.810364902247954</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.670567317084172</v>
       </c>
       <c r="N17">
-        <v>5.97064642899998</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.008784129932963</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.53311474367226</v>
+        <v>28.54839797068937</v>
       </c>
       <c r="C18">
-        <v>18.81438357885989</v>
+        <v>18.91335367441451</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.649522145570425</v>
+        <v>7.58533514738156</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>20.34717270707719</v>
+        <v>18.58248485916376</v>
       </c>
       <c r="H18">
-        <v>4.433995406106591</v>
+        <v>4.424962209608587</v>
       </c>
       <c r="I18">
-        <v>2.670669769152566</v>
+        <v>2.715639051630718</v>
       </c>
       <c r="J18">
-        <v>8.268736612886487</v>
+        <v>8.5350577597259</v>
       </c>
       <c r="K18">
-        <v>11.99364488019672</v>
+        <v>11.633526181202</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.08462885889055</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.066710167902071</v>
       </c>
       <c r="N18">
-        <v>6.59021985761857</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.639461715507275</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.4248717006303</v>
+        <v>28.4391741096473</v>
       </c>
       <c r="C19">
-        <v>18.21850067634747</v>
+        <v>18.47454206776107</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.539978094114833</v>
+        <v>7.442853232402988</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>24.26896404833062</v>
+        <v>21.72195534911217</v>
       </c>
       <c r="H19">
-        <v>3.014277325294769</v>
+        <v>3.028352086776297</v>
       </c>
       <c r="I19">
-        <v>2.691020745855536</v>
+        <v>2.733716438161748</v>
       </c>
       <c r="J19">
-        <v>8.961591859427569</v>
+        <v>9.056074436005888</v>
       </c>
       <c r="K19">
-        <v>12.95516962467068</v>
+        <v>12.28330808276191</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.52402605648813</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.635545216651759</v>
       </c>
       <c r="N19">
-        <v>7.49215516744721</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.552437786960073</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.99677826943981</v>
+        <v>29.00192343485839</v>
       </c>
       <c r="C20">
-        <v>17.77309059509152</v>
+        <v>18.23932997474643</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.129540995973738</v>
+        <v>7.926706874479445</v>
       </c>
       <c r="F20">
         <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>30.58796400831207</v>
+        <v>26.84743395425268</v>
       </c>
       <c r="H20">
-        <v>2.009354151844037</v>
+        <v>2.012457220247988</v>
       </c>
       <c r="I20">
-        <v>2.836161626992512</v>
+        <v>2.855338292727108</v>
       </c>
       <c r="J20">
-        <v>10.09721207986791</v>
+        <v>9.726054354215584</v>
       </c>
       <c r="K20">
-        <v>14.77179946631615</v>
+        <v>13.40577691957638</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.27775599971392</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.65763129541261</v>
       </c>
       <c r="N20">
-        <v>9.055198292985851</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.126269817301994</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.76463566821872</v>
+        <v>30.74914920422002</v>
       </c>
       <c r="C21">
-        <v>18.70275622252269</v>
+        <v>19.0414827423257</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.428123497441966</v>
+        <v>8.186364224107782</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>32.26145290232481</v>
+        <v>29.0108052356617</v>
       </c>
       <c r="H21">
-        <v>2.322876067444577</v>
+        <v>2.280285754959658</v>
       </c>
       <c r="I21">
-        <v>3.100384392392921</v>
+        <v>3.06958137410774</v>
       </c>
       <c r="J21">
-        <v>10.2741670836211</v>
+        <v>8.797551936728704</v>
       </c>
       <c r="K21">
-        <v>14.85101720776226</v>
+        <v>12.9143252708545</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.8768149499682</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.438584980320197</v>
       </c>
       <c r="N21">
-        <v>9.580847524641849</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.624366656334271</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.86914908499712</v>
+        <v>31.83985841456794</v>
       </c>
       <c r="C22">
-        <v>19.29828816989254</v>
+        <v>19.5378893094733</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.58364553452536</v>
+        <v>8.324081169557834</v>
       </c>
       <c r="F22">
         <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>33.20635047004233</v>
+        <v>30.38418539847422</v>
       </c>
       <c r="H22">
-        <v>2.519357362808702</v>
+        <v>2.44764080543675</v>
       </c>
       <c r="I22">
-        <v>3.264187673595483</v>
+        <v>3.200143239308283</v>
       </c>
       <c r="J22">
-        <v>10.36743029777094</v>
+        <v>8.182867438228026</v>
       </c>
       <c r="K22">
-        <v>14.86543580090926</v>
+        <v>12.54711273572284</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.59590816928353</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.263733809785299</v>
       </c>
       <c r="N22">
-        <v>9.843866953354333</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.868395888187091</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.28475751073719</v>
+        <v>31.26334988037196</v>
       </c>
       <c r="C23">
-        <v>18.9576804331652</v>
+        <v>19.27689194563035</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.506334357172367</v>
+        <v>8.253579512207644</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>32.83254012249833</v>
+        <v>29.65468188091387</v>
       </c>
       <c r="H23">
-        <v>2.415936275037605</v>
+        <v>2.360863348435842</v>
       </c>
       <c r="I23">
-        <v>3.173324673617131</v>
+        <v>3.126696829808786</v>
       </c>
       <c r="J23">
-        <v>10.34376030094294</v>
+        <v>8.620423644293091</v>
       </c>
       <c r="K23">
-        <v>14.90789534199891</v>
+        <v>12.81799670487256</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.79064864178319</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.425366270087743</v>
       </c>
       <c r="N23">
-        <v>9.702499124608018</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.73974052718274</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.97020818287438</v>
+        <v>28.97515791724347</v>
       </c>
       <c r="C24">
-        <v>17.66300821158433</v>
+        <v>18.14887365567613</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.200426603668657</v>
+        <v>7.988469259472685</v>
       </c>
       <c r="F24">
         <v>36.85121910575432</v>
       </c>
       <c r="G24">
-        <v>31.21983217154292</v>
+        <v>27.36045619737138</v>
       </c>
       <c r="H24">
-        <v>2.016177726063292</v>
+        <v>2.018816699850076</v>
       </c>
       <c r="I24">
-        <v>2.830662572768086</v>
+        <v>2.847097610019273</v>
       </c>
       <c r="J24">
-        <v>10.22371648519357</v>
+        <v>9.828885810971732</v>
       </c>
       <c r="K24">
-        <v>15.00655420379151</v>
+        <v>13.57711463722438</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.395757765699</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.802056150929538</v>
       </c>
       <c r="N24">
-        <v>9.153226442321509</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.226234604161501</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.25605900015935</v>
+        <v>26.28121935652927</v>
       </c>
       <c r="C25">
-        <v>16.17103602907685</v>
+        <v>16.55164350438712</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.860539172609498</v>
+        <v>7.70800070688132</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>29.51306249488123</v>
+        <v>26.15724765695804</v>
       </c>
       <c r="H25">
-        <v>1.570470395825858</v>
+        <v>1.620151576759399</v>
       </c>
       <c r="I25">
-        <v>2.531323580839993</v>
+        <v>2.522640293778597</v>
       </c>
       <c r="J25">
-        <v>10.12025840498732</v>
+        <v>9.904966470490322</v>
       </c>
       <c r="K25">
-        <v>15.15458000133891</v>
+        <v>13.97984093088989</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.78500723894568</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.906437549467903</v>
       </c>
       <c r="N25">
-        <v>8.526018034731706</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.611968273539864</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
